--- a/DMS/Templates/Report_Sales_Order_By_Item.xlsx
+++ b/DMS/Templates/Report_Sales_Order_By_Item.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\OneDrive\My com\Rang Dong _Product\bc\Template xuất excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980798F0-6902-489C-BB4A-AA7202826964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12150"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>STT</t>
   </si>
   <si>
-    <t>{Đơn vị quản lý}</t>
-  </si>
-  <si>
     <t>Mã sản phẩm</t>
   </si>
   <si>
@@ -68,23 +66,65 @@
     <t>Từ ngày</t>
   </si>
   <si>
-    <t>{ngày bắt đầu}</t>
-  </si>
-  <si>
     <t>Đến ngày</t>
   </si>
   <si>
-    <t>{ngày kết thúc}</t>
-  </si>
-  <si>
     <t>CÔNG TY CỔ PHẦN BÓNG ĐÈN PHÍCH NƯỚC RẠNG ĐÔNG</t>
+  </si>
+  <si>
+    <t>{{Start}}</t>
+  </si>
+  <si>
+    <t>{{End}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderByItems.Items.STT}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderByItems.Items.ItemCode}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderByItems.Items.UnitOfMeasureName}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderByItems.Items.SaleStock}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderByItems.Items.PromotionStock}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderByItems.Items.Discount}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderByItems.Items.Revenue}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderByItems.Items.IndirectSalesOrderCounter}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderByItems.Items.BuyerStoreCounter}}</t>
+  </si>
+  <si>
+    <t>{{Total.TotalSalesStock}}</t>
+  </si>
+  <si>
+    <t>{{Total.TotalPromotionStock}}</t>
+  </si>
+  <si>
+    <t>{{Total.TotalDiscount}}</t>
+  </si>
+  <si>
+    <t>{{Total.TotalRevenue}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderByItems.OrganizationName}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +160,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -135,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -158,32 +205,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,31 +560,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -496,220 +593,159 @@
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="4" spans="1:16" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="7" spans="1:16" s="3" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+    <row r="8" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="15"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="4" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A18:D18"/>
+  <mergeCells count="5">
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="A4:J4"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A8:P8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/DMS/Templates/Report_Sales_Order_By_Item.xlsx
+++ b/DMS/Templates/Report_Sales_Order_By_Item.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980798F0-6902-489C-BB4A-AA7202826964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D30F1AA-8B4A-40BA-A378-987B997074FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,7 +124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +167,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -246,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -258,20 +264,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -281,6 +287,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,7 +571,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -583,35 +590,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="4" spans="1:16" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
@@ -620,13 +627,13 @@
       <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="6"/>
@@ -686,54 +693,54 @@
       <c r="P8" s="15"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="4" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="16" t="s">
         <v>29</v>
       </c>
       <c r="I10" s="5"/>

--- a/DMS/Templates/Report_Sales_Order_By_Item.xlsx
+++ b/DMS/Templates/Report_Sales_Order_By_Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D30F1AA-8B4A-40BA-A378-987B997074FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE20419-9B0E-44F4-A2A2-A14C1A42E528}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,6 +168,7 @@
       <family val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
@@ -254,40 +255,54 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,180 +586,180 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="M13" sqref="M12:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="4" spans="1:16" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
-    <row r="7" spans="1:16" s="3" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:16" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="15"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="11"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:16" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="16" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="4"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/DMS/Templates/Report_Sales_Order_By_Item.xlsx
+++ b/DMS/Templates/Report_Sales_Order_By_Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE20419-9B0E-44F4-A2A2-A14C1A42E528}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D17467-EE67-41F4-8235-BC1D545C5F97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,33 +78,6 @@
     <t>{{End}}</t>
   </si>
   <si>
-    <t>{{ReportSalesOrderByItems.Items.STT}}</t>
-  </si>
-  <si>
-    <t>{{ReportSalesOrderByItems.Items.ItemCode}}</t>
-  </si>
-  <si>
-    <t>{{ReportSalesOrderByItems.Items.UnitOfMeasureName}}</t>
-  </si>
-  <si>
-    <t>{{ReportSalesOrderByItems.Items.SaleStock}}</t>
-  </si>
-  <si>
-    <t>{{ReportSalesOrderByItems.Items.PromotionStock}}</t>
-  </si>
-  <si>
-    <t>{{ReportSalesOrderByItems.Items.Discount}}</t>
-  </si>
-  <si>
-    <t>{{ReportSalesOrderByItems.Items.Revenue}}</t>
-  </si>
-  <si>
-    <t>{{ReportSalesOrderByItems.Items.IndirectSalesOrderCounter}}</t>
-  </si>
-  <si>
-    <t>{{ReportSalesOrderByItems.Items.BuyerStoreCounter}}</t>
-  </si>
-  <si>
     <t>{{Total.TotalSalesStock}}</t>
   </si>
   <si>
@@ -118,6 +91,33 @@
   </si>
   <si>
     <t>{{ReportSalesOrderByItems.OrganizationName}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderByItems.ItemDetails.STT}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderByItems.ItemDetails.ItemCode}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderByItems.ItemDetails.UnitOfMeasureName}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderByItems.ItemDetails.SaleStock}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderByItems.ItemDetails.PromotionStock}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderByItems.ItemDetails.Discount}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderByItems.ItemDetails.Revenue}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderByItems.ItemDetails.IndirectSalesOrderCounter}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderByItems.ItemDetails.BuyerStoreCounter}}</t>
   </si>
 </sst>
 </file>
@@ -261,24 +261,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -287,21 +302,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,74 +586,74 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M12:M13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15" style="4" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="4"/>
+    <col min="1" max="1" width="5.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="4" spans="1:16" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="7" spans="1:16" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -688,78 +688,78 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="11"/>
+      <c r="A8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="16"/>
     </row>
     <row r="9" spans="1:16" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="12" t="s">
+      <c r="A9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="B9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="C9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="E9" s="6" t="s">
         <v>25</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/DMS/Templates/Report_Sales_Order_By_Item.xlsx
+++ b/DMS/Templates/Report_Sales_Order_By_Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D17467-EE67-41F4-8235-BC1D545C5F97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EB01F0-B589-47B7-8C80-93E69DAC433C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -253,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -271,13 +271,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -302,6 +296,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,7 +589,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -605,35 +608,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="4" spans="1:16" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
@@ -688,33 +691,33 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="16"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="14"/>
     </row>
-    <row r="9" spans="1:16" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="138" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -726,10 +729,10 @@
       <c r="F9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="15" t="s">
         <v>28</v>
       </c>
       <c r="I9" s="6" t="s">
@@ -740,26 +743,26 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="8" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/DMS/Templates/Report_Sales_Order_By_Item.xlsx
+++ b/DMS/Templates/Report_Sales_Order_By_Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EB01F0-B589-47B7-8C80-93E69DAC433C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1ACAA54-DE16-4E30-B923-07B70B5052A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -227,9 +227,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -239,21 +237,19 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -276,6 +272,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -289,22 +291,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -589,56 +588,56 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="14" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="3" customWidth="1"/>
     <col min="8" max="8" width="15" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="3"/>
+    <col min="9" max="9" width="15.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
-    <row r="4" spans="1:16" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:16" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -658,7 +657,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -690,27 +689,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
     </row>
-    <row r="9" spans="1:16" ht="138" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>22</v>
       </c>
@@ -723,42 +722,42 @@
       <c r="D9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:16" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="16" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="9" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="7"/>
@@ -770,7 +769,7 @@
     <mergeCell ref="A4:J4"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A8:P8"/>
+    <mergeCell ref="A8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/DMS/Templates/Report_Sales_Order_By_Item.xlsx
+++ b/DMS/Templates/Report_Sales_Order_By_Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1ACAA54-DE16-4E30-B923-07B70B5052A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AE36B7-BEC9-46C9-B73F-1D6228312E34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,10 +114,10 @@
     <t>{{ReportSalesOrderByItems.ItemDetails.Revenue}}</t>
   </si>
   <si>
-    <t>{{ReportSalesOrderByItems.ItemDetails.IndirectSalesOrderCounter}}</t>
-  </si>
-  <si>
     <t>{{ReportSalesOrderByItems.ItemDetails.BuyerStoreCounter}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderByItems.ItemDetails.SalesOrderCounter}}</t>
   </si>
 </sst>
 </file>
@@ -278,6 +278,15 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -295,15 +304,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -588,7 +588,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,35 +607,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="4" spans="1:16" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -690,24 +690,24 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:16" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -735,19 +735,19 @@
         <v>28</v>
       </c>
       <c r="I9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="9" t="s">
         <v>17</v>
       </c>

--- a/DMS/Templates/Report_Sales_Order_By_Item.xlsx
+++ b/DMS/Templates/Report_Sales_Order_By_Item.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AE36B7-BEC9-46C9-B73F-1D6228312E34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC96A7A-AB37-426E-95ED-A9941829A824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>Tổng</t>
   </si>
   <si>
-    <t>BÁO CÁO BÁN HÀNG THEO SẢN PHẨM</t>
-  </si>
-  <si>
     <t>Số cửa hàng mua</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>{{ReportSalesOrderByItems.ItemDetails.SalesOrderCounter}}</t>
+  </si>
+  <si>
+    <t>BÁO CÁO BÁN HÀNG THEO SẢN PHẨM GIÁN TIẾP</t>
   </si>
 </sst>
 </file>
@@ -588,7 +588,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="A4" sqref="A4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,7 +608,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -625,7 +625,7 @@
     </row>
     <row r="4" spans="1:16" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -642,16 +642,16 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -686,12 +686,12 @@
         <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -711,34 +711,34 @@
     </row>
     <row r="9" spans="1:16" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="I9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="42.75" x14ac:dyDescent="0.25">
@@ -749,16 +749,16 @@
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="H10" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>

--- a/DMS/Templates/Report_Sales_Order_By_Item.xlsx
+++ b/DMS/Templates/Report_Sales_Order_By_Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC96A7A-AB37-426E-95ED-A9941829A824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB8AC51-F378-4D79-9098-BF03BDD33260}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
     <t>{{ReportSalesOrderByItems.ItemDetails.SalesOrderCounter}}</t>
   </si>
   <si>
-    <t>BÁO CÁO BÁN HÀNG THEO SẢN PHẨM GIÁN TIẾP</t>
+    <t>BÁO CÁO BÁN HÀNG GIÁN TIẾP THEO SẢN PHẨM</t>
   </si>
 </sst>
 </file>

--- a/DMS/Templates/Report_Sales_Order_By_Item.xlsx
+++ b/DMS/Templates/Report_Sales_Order_By_Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB8AC51-F378-4D79-9098-BF03BDD33260}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1A54D1-6C15-4E64-BB1C-A44C3CDA4BC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>STT</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>BÁO CÁO BÁN HÀNG GIÁN TIẾP THEO SẢN PHẨM</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderByItems.ItemDetails.ItemName}}</t>
   </si>
 </sst>
 </file>
@@ -128,7 +131,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -588,22 +591,22 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:J4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.875" style="3" customWidth="1"/>
     <col min="6" max="6" width="14" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.125" style="3" customWidth="1"/>
     <col min="8" max="8" width="15" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="3"/>
+    <col min="9" max="9" width="15.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.25" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -657,7 +660,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -709,7 +712,7 @@
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
     </row>
-    <row r="9" spans="1:16" ht="165" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
@@ -717,7 +720,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>23</v>
@@ -741,7 +744,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
